--- a/src/MediKart.xlsx
+++ b/src/MediKart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Static Values" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
   <si>
     <t>BOOKING STATUS</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>Patient</t>
+  </si>
+  <si>
+    <t>EMAIL_SENT</t>
+  </si>
+  <si>
+    <t>EMAIL_AUTHORIZED</t>
   </si>
 </sst>
 </file>
@@ -720,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -867,14 +873,18 @@
       <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -927,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB997"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showRuler="0" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,6 +946,7 @@
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="17" x14ac:dyDescent="0.2">
